--- a/small_pet_database.xlsx
+++ b/small_pet_database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EJ\Desktop\chikorita\SBA\pet_pharmacy_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EJ\Desktop\chikorita\SBA\191008\SBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787BD632-A696-4C02-9230-E019D5C30DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB9F21-1243-4D71-8B81-43577BF25702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDF386E5-8150-4926-9043-E257B0A1873C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="167">
   <si>
     <t>병원이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24시 우리들동물메디컬센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양천구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울특별시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미용 전화는 02-415-7532</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IM 동물병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02-338-2475</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,18 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우리동물병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:00~21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00~19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슬개골탈구- 십자인대단열- 종양- 외과수술전문 -혈액 호르몬-영상진단검사</t>
   </si>
   <si>
@@ -533,6 +509,182 @@
   </si>
   <si>
     <t>토끼- 햄스터- 기니픽 등 전문진료</t>
+  </si>
+  <si>
+    <t>앙리동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-766-7577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성북구 성북로 66 농협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어 중국어 영어 원어민 진료 외국 손님들도 어려움 없이 함께 소통할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북악동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오석헌동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시우리들동물메디컬센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크리스동물센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-7136-4575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 종로구 자하문로 293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수동물(새-토끼-고슴도치-이구아나)진료가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-6402-0301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성동구 매봉길 13 래미안 옥수 리버젠 상가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에버랜드 동물원 선임수의사 출신! 미용실은 운영되지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-583-7582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구 학동로 138 연빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지-고양이-토끼-친칠라-햄스터-이구아나-조류-거북-고슴도치-페럿-거북이 등을 진료 다양한 종에 대해 차별화된 진료편성으로 최상의 진료서비스를 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐스타동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-445-5022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구 자곡로 202 강남힐스테이트 에코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지-고양이-토끼-친칠라-햄스터-이구아나-조류-거북-고슴도치-페럿-거북이 등 애견 전용호텔 고양이 전용호텔 분리 운영-호텔 VIP룸 별도 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9389-7581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 송파구 동남로 161 청공빌딩 101호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고슴도치 자궁축농증과 토끼 고창증 치료 전문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파동물종합병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-424-3662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 송파구 송파대로 378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기니피그-햄스터 치료 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-872-7609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 관악구 신림로 265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강아지-고양이-토끼-친칠라-햄스터-이구아나-조류-거북-고슴도치-페럿-슈가글라이더-다람쥐 기타 특수동물 진료가능 - 63 수족관 동물 진료 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -899,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2746718A-8976-4EDE-80B7-9407052EA8E9}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -957,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -980,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1003,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1049,38 +1201,38 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1089,41 +1241,41 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1135,21 +1287,21 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1158,21 +1310,21 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1181,44 +1333,44 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1227,44 +1379,44 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1273,110 +1425,110 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
         <v>90</v>
       </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" t="s">
-        <v>96</v>
-      </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1388,18 +1540,18 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1411,21 +1563,21 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -1434,53 +1586,220 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
         <v>107</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>109</v>
       </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" t="s">
-        <v>112</v>
-      </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
